--- a/biology/Zoologie/Gymnophthalmus/Gymnophthalmus.xlsx
+++ b/biology/Zoologie/Gymnophthalmus/Gymnophthalmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnophthalmus est un genre de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnophthalmus est un genre de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 8 espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud, aux Petites Antilles et en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 8 espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud, aux Petites Antilles et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des reptiles diurnes et ovipares assez petits, aux pattes petites voire atrophiées. Certaines espèces sont parthénogeniques ou présentent un mode de reproduction à la fois sexué et parthénogénétique.
 </t>
@@ -573,13 +589,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 novembre 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 novembre 2017) :
 Gymnophthalmus cryptus Hoogmoed, Cole &amp; Ayarzaguena, 1992
 Gymnophthalmus leucomystax Vanzolini &amp; Carvalho, 1991
 Gymnophthalmus lineatus (Linnaeus, 1758)
-Gymnophthalmus marconaterai García-Pérez &amp; Schargel, 2017[3]
+Gymnophthalmus marconaterai García-Pérez &amp; Schargel, 2017
 Gymnophthalmus pleei Bocourt, 1881
 Gymnophthalmus speciosus (Hallowell, 1861)
 Gymnophthalmus underwoodi Grant, 1958
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Merrem, 1820 : Versuch eines Systems der Amphibien I (Tentamen Systematis Amphibiorum). J. C. Krieger, Marburg, p. 1-191 (texte intégral).</t>
         </is>
